--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="305">
   <si>
     <t>IE</t>
   </si>
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Det_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Apt_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Det_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Apt_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,15 +1308,15 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_LPG_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_ELC_X0</t>
   </si>
   <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_LPG_X0</t>
-  </si>
-  <si>
     <t>R-SH_Att_GAS_X0</t>
   </si>
   <si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>*0.8</t>
+  </si>
+  <si>
+    <t>year2</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1591,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499379992485046"/>
+      <color theme="7" tint="-0.499370008707047"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499379992485046"/>
+      <color theme="7" tint="-0.499370008707047"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0493899993598461"/>
+        <fgColor theme="0" tint="-0.049380000680685"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149399995803833"/>
+        <fgColor theme="0" tint="-0.149389997124672"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2161,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4531" t="8847" r="7659" b="12838"/>
+        <a:srcRect l="4530" t="8845" r="7658" b="12837"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2288,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1281" t="6477" r="3924" b="6250"/>
+        <a:srcRect l="1280" t="6475" r="3923" b="6250"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2331,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3912" t="26112" r="3912" b="26110"/>
+        <a:srcRect l="3910" t="26110" r="3910" b="26109"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5693,7 +5696,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049C6FC2-EA1E-4C97-AFD6-725E147BEBCD}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -5702,7 +5705,7 @@
     <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5742,8 +5745,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5783,8 +5789,11 @@
       <c r="M2">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5824,8 +5833,11 @@
       <c r="M3">
         <v>0.59018803418803401</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5865,8 +5877,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.75">
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5906,8 +5921,11 @@
       <c r="M5">
         <v>3.07019607843137</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75">
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5947,8 +5965,11 @@
       <c r="M6">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75">
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5988,8 +6009,11 @@
       <c r="M7">
         <v>0.810268817204301</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75">
+      <c r="N7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6029,8 +6053,11 @@
       <c r="M8">
         <v>0.39838442187649997</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
+      <c r="N8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6070,8 +6097,11 @@
       <c r="M9">
         <v>0.81016216216216197</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
+      <c r="N9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6111,8 +6141,11 @@
       <c r="M10">
         <v>0.80677902621722797</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75">
+      <c r="N10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6152,8 +6185,11 @@
       <c r="M11">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75">
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6193,8 +6229,11 @@
       <c r="M12">
         <v>0.58177777777777795</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75">
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6234,8 +6273,11 @@
       <c r="M13">
         <v>0.68804511278195502</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6275,8 +6317,11 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6316,8 +6361,11 @@
       <c r="M15">
         <v>0.55798087905732696</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6357,8 +6405,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6398,8 +6449,11 @@
       <c r="M17">
         <v>3.1157627118644098</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6439,8 +6493,11 @@
       <c r="M18">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6480,8 +6537,11 @@
       <c r="M19">
         <v>0.81729411764705895</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
+      <c r="N19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6521,8 +6581,11 @@
       <c r="M20">
         <v>0.60949973059968399</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6562,8 +6625,11 @@
       <c r="M21">
         <v>0.81941558441558404</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6603,8 +6669,11 @@
       <c r="M22">
         <v>0.80707577433628297</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6644,8 +6713,11 @@
       <c r="M23">
         <v>0.55092948717948698</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6685,8 +6757,11 @@
       <c r="M24">
         <v>0.57113772455089795</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6726,8 +6801,11 @@
       <c r="M25">
         <v>0.70400656814449902</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6767,8 +6845,11 @@
       <c r="M26">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6808,8 +6889,11 @@
       <c r="M27">
         <v>0.619863294600137</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+      <c r="N27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6849,8 +6933,11 @@
       <c r="M28">
         <v>0.99952095808383201</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6890,8 +6977,11 @@
       <c r="M29">
         <v>3.0897837837837798</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6931,8 +7021,11 @@
       <c r="M30">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
+      <c r="N30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6972,8 +7065,11 @@
       <c r="M31">
         <v>0.82728758169934602</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
+      <c r="N31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7013,8 +7109,11 @@
       <c r="M32">
         <v>0.65865731206453004</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
+      <c r="N32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7054,8 +7153,11 @@
       <c r="M33">
         <v>0.82280373831775699</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
+      <c r="N33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7095,8 +7197,11 @@
       <c r="M34">
         <v>0.82661774762699303</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+      <c r="N34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7136,8 +7241,11 @@
       <c r="M35">
         <v>0.54578947368421105</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7177,8 +7285,11 @@
       <c r="M36">
         <v>0.61474226804123699</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7218,8 +7329,11 @@
       <c r="M37">
         <v>0.72928609692169399</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
+      <c r="N37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7259,8 +7373,11 @@
       <c r="M38">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7300,8 +7417,11 @@
       <c r="M39">
         <v>0.59018803418803401</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
+      <c r="N39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7341,8 +7461,11 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75">
+      <c r="N40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7382,8 +7505,11 @@
       <c r="M41">
         <v>3.07019607843137</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75">
+      <c r="N41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7423,8 +7549,11 @@
       <c r="M42">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75">
+      <c r="N42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7464,8 +7593,11 @@
       <c r="M43">
         <v>0.810268817204301</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75">
+      <c r="N43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7505,8 +7637,11 @@
       <c r="M44">
         <v>0.39838442187649997</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75">
+      <c r="N44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7546,8 +7681,11 @@
       <c r="M45">
         <v>0.81016216216216197</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
+      <c r="N45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7587,8 +7725,11 @@
       <c r="M46">
         <v>0.80677902621722797</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
+      <c r="N46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7628,8 +7769,11 @@
       <c r="M47">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
+      <c r="N47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7669,8 +7813,11 @@
       <c r="M48">
         <v>0.58177777777777795</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75">
+      <c r="N48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="12.75">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7710,8 +7857,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75">
+      <c r="N49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7751,8 +7901,11 @@
       <c r="M50">
         <v>0.68804511278195502</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75">
+      <c r="N50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7792,8 +7945,11 @@
       <c r="M51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75">
+      <c r="N51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7833,8 +7989,11 @@
       <c r="M52">
         <v>0.55798087905732696</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75">
+      <c r="N52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7874,8 +8033,11 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75">
+      <c r="N53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7915,8 +8077,11 @@
       <c r="M54">
         <v>3.1157627118644098</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75">
+      <c r="N54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7956,8 +8121,11 @@
       <c r="M55">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75">
+      <c r="N55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7997,8 +8165,11 @@
       <c r="M56">
         <v>0.81729411764705895</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75">
+      <c r="N56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="12.75">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8038,8 +8209,11 @@
       <c r="M57">
         <v>0.60949973059968399</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75">
+      <c r="N57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="12.75">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8079,8 +8253,11 @@
       <c r="M58">
         <v>0.81941558441558404</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75">
+      <c r="N58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="12.75">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8120,8 +8297,11 @@
       <c r="M59">
         <v>0.80707577433628297</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75">
+      <c r="N59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="12.75">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8161,8 +8341,11 @@
       <c r="M60">
         <v>0.55092948717948698</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75">
+      <c r="N60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="12.75">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8202,8 +8385,11 @@
       <c r="M61">
         <v>0.57113772455089795</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75">
+      <c r="N61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="12.75">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8243,8 +8429,11 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75">
+      <c r="N62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="12.75">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8284,8 +8473,11 @@
       <c r="M63">
         <v>0.70400656814449902</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75">
+      <c r="N63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="12.75">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8325,8 +8517,11 @@
       <c r="M64">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="12.75">
+      <c r="N64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="12.75">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8366,8 +8561,11 @@
       <c r="M65">
         <v>0.619863294600137</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="12.75">
+      <c r="N65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="12.75">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8407,8 +8605,11 @@
       <c r="M66">
         <v>0.99952095808383201</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="12.75">
+      <c r="N66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="12.75">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8448,8 +8649,11 @@
       <c r="M67">
         <v>3.0897837837837798</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="12.75">
+      <c r="N67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="12.75">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8489,8 +8693,11 @@
       <c r="M68">
         <v>0.90000000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="12.75">
+      <c r="N68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="12.75">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8530,8 +8737,11 @@
       <c r="M69">
         <v>0.82728758169934602</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="12.75">
+      <c r="N69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="12.75">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8571,8 +8781,11 @@
       <c r="M70">
         <v>0.65865731206453004</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75">
+      <c r="N70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="12.75">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8612,8 +8825,11 @@
       <c r="M71">
         <v>0.82280373831775699</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="12.75">
+      <c r="N71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="12.75">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8653,8 +8869,11 @@
       <c r="M72">
         <v>0.82661774762699303</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="12.75">
+      <c r="N72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="12.75">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8694,8 +8913,11 @@
       <c r="M73">
         <v>0.54578947368421105</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="12.75">
+      <c r="N73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="12.75">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8735,8 +8957,11 @@
       <c r="M74">
         <v>0.61474226804123699</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="12.75">
+      <c r="N74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="12.75">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8776,8 +9001,11 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="12.75">
+      <c r="N75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="12.75">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8816,6 +9044,9 @@
       </c>
       <c r="M76">
         <v>0.72928609692169399</v>
+      </c>
+      <c r="N76" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8826,13 +9057,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31429258-A02E-4988-82C1-0A77E14DD528}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8872,8 +9103,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8912,6 +9146,9 @@
       </c>
       <c r="M2">
         <v>0.010896637608966401</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8922,13 +9159,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD076EF3-A195-4397-AD9A-EC5D0F2DC108}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8968,8 +9205,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8977,7 +9217,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9009,8 +9249,11 @@
       <c r="M2">
         <v>0.12716586319930701</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9050,8 +9293,11 @@
       <c r="M3">
         <v>0.24175608869574</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9059,7 +9305,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9090,6 +9336,9 @@
       </c>
       <c r="M4">
         <v>0.29872122806778101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9100,13 +9349,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF976D-9BA7-415B-84DA-001C1A906A30}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9146,8 +9395,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9186,6 +9438,9 @@
       </c>
       <c r="M2">
         <v>0.0118630136986301</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9196,7 +9451,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33C8A0-6F39-4FB7-B653-B5172ACE9A22}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C2" sqref="C2"/>
@@ -9207,7 +9462,7 @@
     <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9247,8 +9502,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9256,7 +9514,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9288,8 +9546,11 @@
       <c r="M2">
         <v>0.21098594733224099</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9329,8 +9590,11 @@
       <c r="M3">
         <v>0.29847129365993402</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9338,7 +9602,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9369,6 +9633,9 @@
       </c>
       <c r="M4">
         <v>0.49065561985780998</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9379,13 +9646,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667C97CC-9D61-4655-83D0-3753B9DE28B3}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9425,8 +9692,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9465,6 +9735,9 @@
       </c>
       <c r="M2">
         <v>0.0067195931921959296</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9475,13 +9748,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAFE0BD-7396-4A40-957F-AD6D95EB14F4}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9521,8 +9794,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9530,7 +9806,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9562,8 +9838,11 @@
       <c r="M2">
         <v>0.0121865123037202</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9603,8 +9882,11 @@
       <c r="M3">
         <v>0.0104455975746106</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9612,7 +9894,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9643,6 +9925,9 @@
       </c>
       <c r="M4">
         <v>0.010445583301088201</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9653,7 +9938,7 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2F285-9307-42EA-A5DF-0946A8C3784D}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="L14" sqref="L14"/>
@@ -9661,7 +9946,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9701,8 +9986,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9741,6 +10029,9 @@
       </c>
       <c r="M2">
         <v>0.117199391171994</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9751,7 +10042,7 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0718C5-D068-4563-B06A-974D1CF3294C}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="I37" sqref="I37"/>
@@ -9759,7 +10050,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9799,8 +10090,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9839,6 +10133,9 @@
       </c>
       <c r="M2">
         <v>0.93569571451266098</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -17075,7 +17372,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2717B6A-07FB-44A5-8C85-4A36192AAC9D}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A4" sqref="A4:XFD4"/>
@@ -17086,7 +17383,7 @@
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17126,8 +17423,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17167,8 +17467,11 @@
       <c r="M2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17208,8 +17511,11 @@
       <c r="M3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17249,8 +17555,11 @@
       <c r="M4">
         <v>0.053377456313566302</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.75">
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17290,8 +17599,11 @@
       <c r="M5">
         <v>0.49058779213070902</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75">
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17331,8 +17643,11 @@
       <c r="M6">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75">
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17372,8 +17687,11 @@
       <c r="M7">
         <v>0.060645497051149098</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75">
+      <c r="N7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17413,8 +17731,11 @@
       <c r="M8">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
+      <c r="N8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17454,8 +17775,11 @@
       <c r="M9">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
+      <c r="N9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17495,8 +17819,11 @@
       <c r="M10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75">
+      <c r="N10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17536,8 +17863,11 @@
       <c r="M11">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75">
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17577,8 +17907,11 @@
       <c r="M12">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75">
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17618,8 +17951,11 @@
       <c r="M13">
         <v>0.13976565562716001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17659,8 +17995,11 @@
       <c r="M14">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17700,8 +18039,11 @@
       <c r="M15">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17741,8 +18083,11 @@
       <c r="M16">
         <v>0.10081773520747001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17782,8 +18127,11 @@
       <c r="M17">
         <v>0.062077936363827101</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17823,8 +18171,11 @@
       <c r="M18">
         <v>0.66299984214582297</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17864,8 +18215,11 @@
       <c r="M19">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
+      <c r="N19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17905,8 +18259,11 @@
       <c r="M20">
         <v>0.049806776874505597</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17946,8 +18303,11 @@
       <c r="M21">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17987,8 +18347,11 @@
       <c r="M22">
         <v>0.069903120588175702</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -18028,8 +18391,11 @@
       <c r="M23">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -18069,8 +18435,11 @@
       <c r="M24">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -18110,8 +18479,11 @@
       <c r="M25">
         <v>0.057147241043066198</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18151,8 +18523,11 @@
       <c r="M26">
         <v>0.21413130493478699</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18192,8 +18567,11 @@
       <c r="M27">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+      <c r="N27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18233,8 +18611,11 @@
       <c r="M28">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18274,8 +18655,11 @@
       <c r="M29">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18315,8 +18699,11 @@
       <c r="M30">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
+      <c r="N30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18356,8 +18743,11 @@
       <c r="M31">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
+      <c r="N31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18397,8 +18787,11 @@
       <c r="M32">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
+      <c r="N32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18438,8 +18831,11 @@
       <c r="M33">
         <v>0.042554933846820402</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
+      <c r="N33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18479,8 +18875,11 @@
       <c r="M34">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+      <c r="N34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18520,8 +18919,11 @@
       <c r="M35">
         <v>0.0537114750791833</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18561,8 +18963,11 @@
       <c r="M36">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18602,8 +19007,11 @@
       <c r="M37">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
+      <c r="N37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18643,8 +19051,11 @@
       <c r="M38">
         <v>0.043752307505030202</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18684,8 +19095,11 @@
       <c r="M39">
         <v>0.14341496381045399</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
+      <c r="N39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18724,6 +19138,9 @@
       </c>
       <c r="M40">
         <v>0.12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -18734,7 +19151,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8798645-A7BE-46E5-8441-577006E99D5D}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -18743,7 +19160,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
+    <row r="1" spans="1:14" ht="12.75">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18783,8 +19200,11 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18824,8 +19244,11 @@
       <c r="M2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18865,8 +19288,11 @@
       <c r="M3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
+      <c r="N3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18906,8 +19332,11 @@
       <c r="M4">
         <v>0.013931119040235</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.75">
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18947,8 +19376,11 @@
       <c r="M5">
         <v>0.18130269923092601</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75">
+      <c r="N5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18988,8 +19420,11 @@
       <c r="M6">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75">
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -19029,8 +19464,11 @@
       <c r="M7">
         <v>0.025618485673577399</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75">
+      <c r="N7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -19070,8 +19508,11 @@
       <c r="M8">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
+      <c r="N8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -19111,8 +19552,11 @@
       <c r="M9">
         <v>0.066604254563694898</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
+      <c r="N9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19152,8 +19596,11 @@
       <c r="M10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75">
+      <c r="N10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19193,8 +19640,11 @@
       <c r="M11">
         <v>0.161743747694956</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75">
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19234,8 +19684,11 @@
       <c r="M12">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75">
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19275,8 +19728,11 @@
       <c r="M13">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19316,8 +19772,11 @@
       <c r="M14">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19357,8 +19816,11 @@
       <c r="M15">
         <v>0.30984484845142601</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19398,8 +19860,11 @@
       <c r="M16">
         <v>0.035156391297092499</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19439,8 +19904,11 @@
       <c r="M17">
         <v>0.11404303534564</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19480,8 +19948,11 @@
       <c r="M18">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19521,8 +19992,11 @@
       <c r="M19">
         <v>0.035964557684536103</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
+      <c r="N19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19562,8 +20036,11 @@
       <c r="M20">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
+      <c r="N20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19603,8 +20080,11 @@
       <c r="M21">
         <v>0.047079298490866298</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19644,8 +20124,11 @@
       <c r="M22">
         <v>0.048109166237074001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19685,8 +20168,11 @@
       <c r="M23">
         <v>0.0727790788417393</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19726,8 +20212,11 @@
       <c r="M24">
         <v>0.072438724233275797</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19767,8 +20256,11 @@
       <c r="M25">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19808,8 +20300,11 @@
       <c r="M26">
         <v>0.0697946718860816</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19849,8 +20344,11 @@
       <c r="M27">
         <v>0.46414376338591401</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+      <c r="N27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19890,8 +20388,11 @@
       <c r="M28">
         <v>0.043843217634644903</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19931,8 +20432,11 @@
       <c r="M29">
         <v>0.138319067250922</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19972,8 +20476,11 @@
       <c r="M30">
         <v>0.0697946718860816</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
+      <c r="N30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -20013,8 +20520,11 @@
       <c r="M31">
         <v>0.0396720040920054</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
+      <c r="N31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -20054,8 +20564,11 @@
       <c r="M32">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
+      <c r="N32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -20095,8 +20608,11 @@
       <c r="M33">
         <v>0.0537535468762151</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
+      <c r="N33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20136,8 +20652,11 @@
       <c r="M34">
         <v>0.0697946718860816</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+      <c r="N34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20177,8 +20696,11 @@
       <c r="M35">
         <v>0.101539467044872</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
+      <c r="N35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20218,8 +20740,11 @@
       <c r="M36">
         <v>0.13495608652757701</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -20258,6 +20783,9 @@
       </c>
       <c r="M37">
         <v>0.094687203541950801</v>
+      </c>
+      <c r="N37" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
